--- a/TestNG_Tutorial/src/main/resources/ReadDataDemo.xlsx
+++ b/TestNG_Tutorial/src/main/resources/ReadDataDemo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>admin124</t>
+  </si>
+  <si>
+    <t>admin125</t>
   </si>
 </sst>
 </file>
@@ -81,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +373,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,11 +383,11 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -403,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -414,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG_Tutorial/src/main/resources/ReadDataDemo.xlsx
+++ b/TestNG_Tutorial/src/main/resources/ReadDataDemo.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestNG_Tutorial/src/main/resources/ReadDataDemo.xlsx
+++ b/TestNG_Tutorial/src/main/resources/ReadDataDemo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -39,12 +36,6 @@
     <t>Admin12</t>
   </si>
   <si>
-    <t>Log4j</t>
-  </si>
-  <si>
-    <t>Selenium</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -52,6 +43,9 @@
   </si>
   <si>
     <t>admin125</t>
+  </si>
+  <si>
+    <t>Invalid Login</t>
   </si>
 </sst>
 </file>
@@ -67,15 +61,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,13 +89,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,58 +408,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
